--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.07914842678907</v>
+        <v>0.2468136666666667</v>
       </c>
       <c r="H2">
-        <v>1.07914842678907</v>
+        <v>0.740441</v>
       </c>
       <c r="I2">
-        <v>0.5378426215348241</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="J2">
-        <v>0.5378426215348241</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N2">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q2">
-        <v>2.304271322630253</v>
+        <v>0.07606706708322224</v>
       </c>
       <c r="R2">
-        <v>2.304271322630253</v>
+        <v>0.684603603749</v>
       </c>
       <c r="S2">
-        <v>0.4171675897458169</v>
+        <v>0.009435066813465551</v>
       </c>
       <c r="T2">
-        <v>0.4171675897458169</v>
+        <v>0.009435066813465551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.07914842678907</v>
+        <v>0.2468136666666667</v>
       </c>
       <c r="H3">
-        <v>1.07914842678907</v>
+        <v>0.740441</v>
       </c>
       <c r="I3">
-        <v>0.5378426215348241</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="J3">
-        <v>0.5378426215348241</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P3">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q3">
-        <v>0.6665618853044943</v>
+        <v>0.5447274703375556</v>
       </c>
       <c r="R3">
-        <v>0.6665618853044943</v>
+        <v>4.902547233038</v>
       </c>
       <c r="S3">
-        <v>0.1206750317890073</v>
+        <v>0.06756590302268294</v>
       </c>
       <c r="T3">
-        <v>0.1206750317890073</v>
+        <v>0.06756590302268295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.313610044762685</v>
+        <v>0.2468136666666667</v>
       </c>
       <c r="H4">
-        <v>0.313610044762685</v>
+        <v>0.740441</v>
       </c>
       <c r="I4">
-        <v>0.1563018065241407</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="J4">
-        <v>0.1563018065241407</v>
+        <v>0.1024330939624956</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N4">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q4">
-        <v>0.6696415568946499</v>
+        <v>0.2050379854466667</v>
       </c>
       <c r="R4">
-        <v>0.6696415568946499</v>
+        <v>1.84534186902</v>
       </c>
       <c r="S4">
-        <v>0.1212325786203445</v>
+        <v>0.02543212412634707</v>
       </c>
       <c r="T4">
-        <v>0.1212325786203445</v>
+        <v>0.02543212412634708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.313610044762685</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H5">
-        <v>0.313610044762685</v>
+        <v>3.258176</v>
       </c>
       <c r="I5">
-        <v>0.1563018065241407</v>
+        <v>0.4507382064936274</v>
       </c>
       <c r="J5">
-        <v>0.1563018065241407</v>
+        <v>0.4507382064936274</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.617673962874414</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N5">
-        <v>0.617673962874414</v>
+        <v>0.924589</v>
       </c>
       <c r="O5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q5">
-        <v>0.19370875914579</v>
+        <v>0.3347192988515556</v>
       </c>
       <c r="R5">
-        <v>0.19370875914579</v>
+        <v>3.012473689664</v>
       </c>
       <c r="S5">
-        <v>0.03506922790379617</v>
+        <v>0.0415172961114119</v>
       </c>
       <c r="T5">
-        <v>0.03506922790379617</v>
+        <v>0.0415172961114119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.613680556484995</v>
+        <v>1.086058666666667</v>
       </c>
       <c r="H6">
-        <v>0.613680556484995</v>
+        <v>3.258176</v>
       </c>
       <c r="I6">
-        <v>0.3058555719410352</v>
+        <v>0.4507382064936274</v>
       </c>
       <c r="J6">
-        <v>0.3058555719410352</v>
+        <v>0.4507382064936274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1352682035468</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N6">
-        <v>2.1352682035468</v>
+        <v>6.621118</v>
       </c>
       <c r="O6">
-        <v>0.7756313334844294</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P6">
-        <v>0.7756313334844294</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q6">
-        <v>1.310372579397316</v>
+        <v>2.396974195640889</v>
       </c>
       <c r="R6">
-        <v>1.310372579397316</v>
+        <v>21.572767760768</v>
       </c>
       <c r="S6">
-        <v>0.2372311651182679</v>
+        <v>0.2973114720103736</v>
       </c>
       <c r="T6">
-        <v>0.2372311651182679</v>
+        <v>0.2973114720103736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.086058666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.258176</v>
+      </c>
+      <c r="I7">
+        <v>0.4507382064936274</v>
+      </c>
+      <c r="J7">
+        <v>0.4507382064936274</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.83074</v>
+      </c>
+      <c r="N7">
+        <v>2.49222</v>
+      </c>
+      <c r="O7">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P7">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q7">
+        <v>0.9022323767466668</v>
+      </c>
+      <c r="R7">
+        <v>8.120091390720001</v>
+      </c>
+      <c r="S7">
+        <v>0.1119094383718419</v>
+      </c>
+      <c r="T7">
+        <v>0.1119094383718419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3246593333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.973978</v>
+      </c>
+      <c r="I8">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="J8">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.924589</v>
+      </c>
+      <c r="O8">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P8">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q8">
+        <v>0.1000588161157778</v>
+      </c>
+      <c r="R8">
+        <v>0.900529345042</v>
+      </c>
+      <c r="S8">
+        <v>0.01241091120676131</v>
+      </c>
+      <c r="T8">
+        <v>0.01241091120676131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3246593333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.973978</v>
+      </c>
+      <c r="I9">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="J9">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.621118</v>
+      </c>
+      <c r="O9">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P9">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q9">
+        <v>0.7165359186004445</v>
+      </c>
+      <c r="R9">
+        <v>6.448823267404</v>
+      </c>
+      <c r="S9">
+        <v>0.08887636299749296</v>
+      </c>
+      <c r="T9">
+        <v>0.08887636299749298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3246593333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.973978</v>
+      </c>
+      <c r="I10">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="J10">
+        <v>0.1347407558352435</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.83074</v>
+      </c>
+      <c r="N10">
+        <v>2.49222</v>
+      </c>
+      <c r="O10">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P10">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q10">
+        <v>0.2697074945733334</v>
+      </c>
+      <c r="R10">
+        <v>2.42736745116</v>
+      </c>
+      <c r="S10">
+        <v>0.03345348163098919</v>
+      </c>
+      <c r="T10">
+        <v>0.0334534816309892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.098119</v>
+      </c>
+      <c r="H11">
+        <v>0.294357</v>
+      </c>
+      <c r="I11">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="J11">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.924589</v>
+      </c>
+      <c r="O11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q11">
+        <v>0.03023991603033334</v>
+      </c>
+      <c r="R11">
+        <v>0.272159244273</v>
+      </c>
+      <c r="S11">
+        <v>0.003750843027346242</v>
+      </c>
+      <c r="T11">
+        <v>0.003750843027346242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.098119</v>
+      </c>
+      <c r="H12">
+        <v>0.294357</v>
+      </c>
+      <c r="I12">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="J12">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.621118</v>
+      </c>
+      <c r="O12">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P12">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q12">
+        <v>0.2165524923473333</v>
+      </c>
+      <c r="R12">
+        <v>1.948972431126</v>
+      </c>
+      <c r="S12">
+        <v>0.02686033933297573</v>
+      </c>
+      <c r="T12">
+        <v>0.02686033933297573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.613680556484995</v>
-      </c>
-      <c r="H7">
-        <v>0.613680556484995</v>
-      </c>
-      <c r="I7">
-        <v>0.3058555719410352</v>
-      </c>
-      <c r="J7">
-        <v>0.3058555719410352</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="N7">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="O7">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="P7">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="Q7">
-        <v>0.3790545012630625</v>
-      </c>
-      <c r="R7">
-        <v>0.3790545012630625</v>
-      </c>
-      <c r="S7">
-        <v>0.06862440682276727</v>
-      </c>
-      <c r="T7">
-        <v>0.06862440682276727</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.098119</v>
+      </c>
+      <c r="H13">
+        <v>0.294357</v>
+      </c>
+      <c r="I13">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="J13">
+        <v>0.04072154059475138</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.83074</v>
+      </c>
+      <c r="N13">
+        <v>2.49222</v>
+      </c>
+      <c r="O13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q13">
+        <v>0.08151137806</v>
+      </c>
+      <c r="R13">
+        <v>0.73360240254</v>
+      </c>
+      <c r="S13">
+        <v>0.01011035823442941</v>
+      </c>
+      <c r="T13">
+        <v>0.01011035823442941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6538603333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.961581</v>
+      </c>
+      <c r="I14">
+        <v>0.2713664031138821</v>
+      </c>
+      <c r="J14">
+        <v>0.2713664031138822</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.924589</v>
+      </c>
+      <c r="O14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q14">
+        <v>0.2015173572454444</v>
+      </c>
+      <c r="R14">
+        <v>1.813656215209</v>
+      </c>
+      <c r="S14">
+        <v>0.02499543892764523</v>
+      </c>
+      <c r="T14">
+        <v>0.02499543892764524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6538603333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.961581</v>
+      </c>
+      <c r="I15">
+        <v>0.2713664031138821</v>
+      </c>
+      <c r="J15">
+        <v>0.2713664031138822</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.621118</v>
+      </c>
+      <c r="O15">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P15">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q15">
+        <v>1.443095474173111</v>
+      </c>
+      <c r="R15">
+        <v>12.987859267558</v>
+      </c>
+      <c r="S15">
+        <v>0.1789960194223948</v>
+      </c>
+      <c r="T15">
+        <v>0.1789960194223948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6538603333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.961581</v>
+      </c>
+      <c r="I16">
+        <v>0.2713664031138821</v>
+      </c>
+      <c r="J16">
+        <v>0.2713664031138822</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.83074</v>
+      </c>
+      <c r="N16">
+        <v>2.49222</v>
+      </c>
+      <c r="O16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q16">
+        <v>0.5431879333133333</v>
+      </c>
+      <c r="R16">
+        <v>4.88869139982</v>
+      </c>
+      <c r="S16">
+        <v>0.06737494476384209</v>
+      </c>
+      <c r="T16">
+        <v>0.06737494476384212</v>
       </c>
     </row>
   </sheetData>
